--- a/GitHubの使い方.xlsx
+++ b/GitHubの使い方.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ikura\テクノオアシス\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13F3F0F-FD8C-4EDC-AE4C-48234C32B7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0FE729-87E9-4F14-90D2-1674808174E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GitHubの使い方" sheetId="1" r:id="rId1"/>
@@ -1920,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="Z59" sqref="Z59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL5" sqref="AL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="18.75"/>
